--- a/biology/Botanique/Goethalsia_(plante)/Goethalsia_(plante).xlsx
+++ b/biology/Botanique/Goethalsia_(plante)/Goethalsia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Goethalsia est un genre de plantes de la famille des Malvaceae.
 Il s'agit d'un genre monotypique et ne contient que l'espèce Goethalsia meiantha (Donn.Sm.) Burret, que l'on trouve en Amérique Centrale (Costa Rica, Panama, Nicaragua).
